--- a/Arbeitsdokumente/Longlist CRM Systems.xlsx
+++ b/Arbeitsdokumente/Longlist CRM Systems.xlsx
@@ -5,21 +5,21 @@
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\Phase 2 Quali\IT_Projekt_SS19\Arbeitsdokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F4018-557C-462B-AD55-E459B4466BCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262230D9-868F-4266-AB05-3251CA8A6824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19395" windowHeight="10395" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" state="hidden" r:id="rId1"/>
     <sheet name="Longlist" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Longlist!$A$4:$O$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Longlist!$A$4:$N$16</definedName>
     <definedName name="Auswahlkriterien">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Longlist!$A$1:$I$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Longlist!$A$1:$H$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Longlist!$A:$B</definedName>
     <definedName name="ende" localSheetId="1">Longlist!#REF!</definedName>
     <definedName name="ende">#REF!</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>Nischenabieter</t>
   </si>
@@ -103,39 +103,15 @@
     <t>Function C</t>
   </si>
   <si>
-    <t>Top 5</t>
-  </si>
-  <si>
     <t>Longlist: CRM Software</t>
   </si>
   <si>
     <t>Weitere Anbieter</t>
   </si>
   <si>
-    <t>Basisinformationen</t>
-  </si>
-  <si>
     <t>Webseite</t>
   </si>
   <si>
-    <t>E-Mail Addresse</t>
-  </si>
-  <si>
-    <t>Telefonnummer</t>
-  </si>
-  <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>Beschreibung / Kommentar</t>
-  </si>
-  <si>
-    <t>Module &amp; Funktionalitäten</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
     <t>Unternehmensname</t>
   </si>
   <si>
@@ -157,37 +133,212 @@
     <t>Anbieter 5</t>
   </si>
   <si>
-    <t>Anbieter 11</t>
-  </si>
-  <si>
-    <t>Anbieter 12</t>
-  </si>
-  <si>
-    <t>Anbieter 13</t>
-  </si>
-  <si>
-    <t>Anbieter 14</t>
-  </si>
-  <si>
-    <t>Anbieter 15</t>
-  </si>
-  <si>
-    <t>Anbieter 16</t>
-  </si>
-  <si>
-    <t>Anbieter 17</t>
-  </si>
-  <si>
-    <t>Anbieter 18</t>
-  </si>
-  <si>
-    <t>Anbieter 19</t>
-  </si>
-  <si>
-    <t>Anbieter 20</t>
-  </si>
-  <si>
     <t>Datum des Status</t>
+  </si>
+  <si>
+    <t>Top 3</t>
+  </si>
+  <si>
+    <t>Anbieter 6</t>
+  </si>
+  <si>
+    <t>Anbieter 7</t>
+  </si>
+  <si>
+    <t>Anbieter 8</t>
+  </si>
+  <si>
+    <t>Anbieter 9</t>
+  </si>
+  <si>
+    <t>Anbieter 10</t>
+  </si>
+  <si>
+    <t>Odoo</t>
+  </si>
+  <si>
+    <t>CiviCRM</t>
+  </si>
+  <si>
+    <t>SuiteCRM</t>
+  </si>
+  <si>
+    <t>Maximale Nutzer</t>
+  </si>
+  <si>
+    <t>Maximale Kontakte</t>
+  </si>
+  <si>
+    <t>Speicher</t>
+  </si>
+  <si>
+    <t>Plattfrom</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Funktionalitäten</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Mobiler                                                                            Zugriff</t>
+  </si>
+  <si>
+    <t>Relevanten Sprachen</t>
+  </si>
+  <si>
+    <t>Schnittstellen</t>
+  </si>
+  <si>
+    <t>Betriebssystem</t>
+  </si>
+  <si>
+    <t>Programmiersprache</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Datenbank</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>backend</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://civicrm.org/explore-civicrm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.odoo.com/de_DE/page/crm </t>
+  </si>
+  <si>
+    <t>unbegrenzt</t>
+  </si>
+  <si>
+    <t>Mitgliederverwaltung, Kontaktverwaltung, Spendenverwaltung, Eventmangement, Kampagnenmangement, Auswertungen</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Deutsch, Englisch</t>
+  </si>
+  <si>
+    <t>drupal, Wordpress und joomla, Stripe, MailChimp, Clickatell, Twilio, iATS Payments, Sage Pay, eWAY, Omnipay, GoToWebinar, Google Apps uvm.</t>
+  </si>
+  <si>
+    <t>JavaScript, PHP</t>
+  </si>
+  <si>
+    <t>Server: Linux,                   Client: plattformunabhängig</t>
+  </si>
+  <si>
+    <t>MySQL &amp; MariaDB</t>
+  </si>
+  <si>
+    <t>1CRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminverwaltung, Kalender, E-Mail Management, Beziehungsmanagement, Zeiterfassung, Kontakt- &amp; Kundenverwaltung, Eventmangement, Service und Supportmanagement, Import &amp; Export </t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>nicht              vorhanden</t>
+  </si>
+  <si>
+    <t>https://1crm-system.de</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>Google, Dropbox, Woocommerce, Typo3, Magento, Microsoft Outlook Integration</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>MariaDB, MySQL, Microsoft SQL Server</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>MailChimp, Gmail, WordPress, über einen externen Partner (Riva) Anbindung an GroupWise, Outlook plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Englisch, (Deutsch – 
+von diligent kostenlos bereitgestellt) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.veonconsulting.com/suitecrm-installation-steps/ </t>
+  </si>
+  <si>
+    <t>Kontaktverwaltung, Angebote, Marketingkampagnen, E-Mail-Kampagnen, Auswertungen, Projektverwaltung, Rechnungen, Verträge, Events usw.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kein </t>
+  </si>
+  <si>
+    <t>EspoCRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.espocrm.com/download/ </t>
+  </si>
+  <si>
+    <t>Kontaktverwaltung, Angebote, Aktivitäten, Cases, Marketingkampagnen,
+ E-Mail-Management, Einladungen an Teilnehmer senden, Kalender</t>
+  </si>
+  <si>
+    <t>Web, Cloud (max. 2 Nutzer, 100 MB, 1.000 Kontakte kostenlos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vtiger CRM </t>
   </si>
 </sst>
 </file>
@@ -195,10 +346,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,13 +448,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -317,56 +461,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFF79646"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="9"/>
-      <color rgb="FFF79646"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,13 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -394,8 +483,84 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFF79646"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +589,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -482,9 +653,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -515,8 +686,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -530,7 +702,7 @@
     <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -538,58 +710,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -598,43 +729,144 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="32" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="33">
     <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -664,6 +896,7 @@
     <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="32" builtinId="8"/>
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
@@ -4777,164 +5010,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="47">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Anzahl von Firmenname" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
   <location ref="A21:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="47">
@@ -5086,6 +5161,164 @@
           </reference>
           <reference field="7" count="1" selected="0">
             <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="47">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Anzahl von Firmenname" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -5372,13 +5605,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5386,7 +5619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -5394,7 +5627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -5402,7 +5635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -5410,7 +5643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -5418,7 +5651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -5426,7 +5659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -5434,7 +5667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -5442,7 +5675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -5450,7 +5683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -5458,7 +5691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -5466,7 +5699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -5485,90 +5718,89 @@
   <sheetPr codeName="Tabelle3">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:DW22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="25.5703125" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="17.140625" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="28.5703125" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9.42578125" style="26" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="14" width="28.5703125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="32" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="21" width="28.5703125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.42578125" style="33" customWidth="1" collapsed="1"/>
-    <col min="23" max="25" width="30.42578125" style="33" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9.42578125" style="33" customWidth="1" collapsed="1"/>
-    <col min="27" max="30" width="23.85546875" style="33" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9.42578125" style="33" customWidth="1" collapsed="1"/>
-    <col min="32" max="34" width="28.5703125" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="19.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="25.5546875" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="17.109375" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="8" width="28.5546875" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.44140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="13" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="32" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="20" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="22" max="24" width="30.44140625" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="23.88671875" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="28.5546875" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="36" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
+    <row r="1" spans="1:127" s="17" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
     </row>
-    <row r="2" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="51">
+    <row r="2" spans="1:127" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="40">
         <v>43628</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -5579,825 +5811,957 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="5"/>
+    <row r="3" spans="1:127" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:35" s="43" customFormat="1" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:127" s="22" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
+      <c r="BJ4" s="36"/>
+      <c r="BK4" s="36"/>
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="36"/>
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="36"/>
+      <c r="BQ4" s="36"/>
+      <c r="BR4" s="36"/>
+      <c r="BS4" s="36"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="36"/>
+      <c r="BV4" s="36"/>
+      <c r="BW4" s="36"/>
+      <c r="BX4" s="36"/>
+      <c r="BY4" s="36"/>
+      <c r="BZ4" s="36"/>
+      <c r="CA4" s="36"/>
+      <c r="CB4" s="36"/>
+      <c r="CC4" s="36"/>
+      <c r="CD4" s="36"/>
+      <c r="CE4" s="36"/>
+      <c r="CF4" s="36"/>
+      <c r="CG4" s="36"/>
+      <c r="CH4" s="36"/>
+      <c r="CI4" s="36"/>
+      <c r="CJ4" s="36"/>
+      <c r="CK4" s="36"/>
+      <c r="CL4" s="36"/>
+      <c r="CM4" s="36"/>
+      <c r="CN4" s="36"/>
+      <c r="CO4" s="36"/>
+      <c r="CP4" s="36"/>
+      <c r="CQ4" s="36"/>
+      <c r="CR4" s="36"/>
+      <c r="CS4" s="36"/>
+      <c r="CT4" s="36"/>
+      <c r="CU4" s="36"/>
+      <c r="CV4" s="36"/>
+      <c r="CW4" s="36"/>
+      <c r="CX4" s="36"/>
+      <c r="CY4" s="36"/>
+      <c r="CZ4" s="36"/>
+      <c r="DA4" s="36"/>
+      <c r="DB4" s="36"/>
+      <c r="DC4" s="36"/>
+      <c r="DD4" s="36"/>
+      <c r="DE4" s="36"/>
+      <c r="DF4" s="36"/>
+      <c r="DG4" s="36"/>
+    </row>
+    <row r="5" spans="1:127" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="38"/>
+      <c r="BP5" s="38"/>
+      <c r="BQ5" s="38"/>
+      <c r="BR5" s="38"/>
+      <c r="BS5" s="38"/>
+      <c r="BT5" s="38"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="38"/>
+      <c r="BW5" s="38"/>
+      <c r="BX5" s="38"/>
+      <c r="BY5" s="38"/>
+      <c r="BZ5" s="38"/>
+      <c r="CA5" s="38"/>
+      <c r="CB5" s="38"/>
+      <c r="CC5" s="38"/>
+      <c r="CD5" s="38"/>
+      <c r="CE5" s="38"/>
+      <c r="CF5" s="38"/>
+      <c r="CG5" s="38"/>
+      <c r="CH5" s="38"/>
+      <c r="CI5" s="38"/>
+      <c r="CJ5" s="38"/>
+      <c r="CK5" s="38"/>
+      <c r="CL5" s="38"/>
+      <c r="CM5" s="38"/>
+      <c r="CN5" s="38"/>
+      <c r="CO5" s="38"/>
+      <c r="CP5" s="38"/>
+      <c r="CQ5" s="38"/>
+      <c r="CR5" s="38"/>
+      <c r="CS5" s="38"/>
+      <c r="CT5" s="38"/>
+      <c r="CU5" s="38"/>
+      <c r="CV5" s="38"/>
+      <c r="CW5" s="38"/>
+      <c r="CX5" s="38"/>
+      <c r="CY5" s="38"/>
+      <c r="CZ5" s="38"/>
+      <c r="DA5" s="38"/>
+      <c r="DB5" s="38"/>
+      <c r="DC5" s="38"/>
+      <c r="DD5" s="38"/>
+      <c r="DE5" s="38"/>
+      <c r="DF5" s="38"/>
+      <c r="DG5" s="38"/>
+    </row>
+    <row r="6" spans="1:127" s="49" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+    </row>
+    <row r="7" spans="1:127" s="57" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+    </row>
+    <row r="8" spans="1:127" s="60" customFormat="1" ht="109.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+    </row>
+    <row r="9" spans="1:127" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="38"/>
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="38"/>
+      <c r="BN9" s="38"/>
+      <c r="BO9" s="38"/>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="38"/>
+      <c r="BR9" s="38"/>
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="38"/>
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38"/>
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="38"/>
+      <c r="CI9" s="38"/>
+      <c r="CJ9" s="38"/>
+      <c r="CK9" s="38"/>
+      <c r="CL9" s="38"/>
+      <c r="CM9" s="38"/>
+      <c r="CN9" s="38"/>
+      <c r="CO9" s="38"/>
+      <c r="CP9" s="38"/>
+      <c r="CQ9" s="38"/>
+      <c r="CR9" s="38"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="38"/>
+      <c r="CU9" s="38"/>
+      <c r="CV9" s="38"/>
+      <c r="CW9" s="38"/>
+      <c r="CX9" s="38"/>
+      <c r="CY9" s="38"/>
+      <c r="CZ9" s="38"/>
+      <c r="DA9" s="38"/>
+      <c r="DB9" s="38"/>
+      <c r="DC9" s="38"/>
+      <c r="DD9" s="38"/>
+      <c r="DE9" s="38"/>
+      <c r="DF9" s="38"/>
+      <c r="DG9" s="38"/>
+      <c r="DH9" s="38"/>
+      <c r="DI9" s="38"/>
+      <c r="DJ9" s="38"/>
+      <c r="DK9" s="38"/>
+      <c r="DL9" s="38"/>
+      <c r="DM9" s="38"/>
+      <c r="DN9" s="38"/>
+      <c r="DO9" s="38"/>
+      <c r="DP9" s="38"/>
+      <c r="DQ9" s="38"/>
+      <c r="DR9" s="38"/>
+      <c r="DS9" s="38"/>
+      <c r="DT9" s="38"/>
+      <c r="DU9" s="38"/>
+      <c r="DV9" s="38"/>
+      <c r="DW9" s="38"/>
+    </row>
+    <row r="10" spans="1:127" s="65" customFormat="1" ht="124.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="44">
+        <v>3</v>
+      </c>
+      <c r="E10" s="61">
+        <v>750</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+    </row>
+    <row r="11" spans="1:127" s="60" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+    </row>
+    <row r="12" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG4" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH4" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI4" s="41"/>
+      <c r="B12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
     </row>
-    <row r="5" spans="1:35" s="48" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
+    <row r="13" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
     </row>
-    <row r="6" spans="1:35" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
+    <row r="14" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="59"/>
     </row>
-    <row r="7" spans="1:35" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
+    <row r="15" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
     </row>
-    <row r="8" spans="1:35" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
+    <row r="16" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="59"/>
     </row>
-    <row r="9" spans="1:35" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
     </row>
-    <row r="10" spans="1:35" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
-    <row r="11" spans="1:35" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
-    <row r="12" spans="1:35" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
-    <row r="13" spans="1:35" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
-    <row r="14" spans="1:35" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-    </row>
-    <row r="15" spans="1:35" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-    </row>
-    <row r="16" spans="1:35" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-    </row>
-    <row r="17" spans="1:34" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-    </row>
-    <row r="18" spans="1:34" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-    </row>
-    <row r="19" spans="1:34" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-    </row>
-    <row r="20" spans="1:34" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-    </row>
-    <row r="21" spans="1:34" s="22" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="C22" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:O21" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <mergeCells count="4">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
+  <autoFilter ref="A4:N16" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17 C13">
-    <cfRule type="duplicateValues" dxfId="10" priority="37"/>
+  <conditionalFormatting sqref="C15 C11">
+    <cfRule type="duplicateValues" dxfId="11" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C1048576 C2:C5 B1 C11">
-    <cfRule type="duplicateValues" dxfId="8" priority="38"/>
+  <conditionalFormatting sqref="C43:C1048576 C2:C5 B1 C9">
+    <cfRule type="duplicateValues" dxfId="9" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="2" priority="79"/>
+  <conditionalFormatting sqref="C6 C8">
+    <cfRule type="duplicateValues" dxfId="2" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6 C8:C10">
-    <cfRule type="duplicateValues" dxfId="1" priority="83"/>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="duplicateValues" dxfId="1" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14 C16 C20:C21">
-    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
+  <conditionalFormatting sqref="C12 C14">
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{B84C1E36-11AC-4061-9A7E-251503A94C44}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{DBF2A0E4-FEC8-4441-AAC1-77675BCD4AC1}"/>
+    <hyperlink ref="C10" r:id="rId3" display="https://1crm-system.de/" xr:uid="{2DF59019-A99C-406D-8549-21A6B85AE094}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{B8A2E259-86A5-4195-8EE6-C90D4E03DEE8}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{B6136DDC-ADEF-42F8-AB95-676026D51A29}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="31" operator="containsText" id="{E3EC7C04-1D0A-4112-8FE3-C886FF74FF67}">
-            <xm:f>NOT(ISERROR(SEARCH("-",K6)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("-",J6)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -6411,11 +6775,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K6:U21 U11:AI11 V6:AE1048576</xm:sqref>
+          <xm:sqref>T9:AH9 J6:T6 U6:AD1048576 J8:T9 K7:L7 O7:T7 J11:T16 K10:T10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{01EEB067-DA54-4F8D-9BC3-C701369D85C4}">
-            <xm:f>NOT(ISERROR(SEARCH("-",V2)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("-",U2)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -6429,7 +6793,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V2:AE3</xm:sqref>
+          <xm:sqref>U2:AD3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6438,9 +6802,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6647,27 +7014,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6539C82E-ABB7-4E02-A471-7E913DCC58B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBC73EDD-9F3A-463B-B1FD-FE2A0ED29205}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="daa98ab5-b0ae-4511-837f-5a99de3b2e1b"/>
-    <ds:schemaRef ds:uri="91f9b605-f644-4f42-96d9-fc23afc4f13c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6692,9 +7047,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBC73EDD-9F3A-463B-B1FD-FE2A0ED29205}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6539C82E-ABB7-4E02-A471-7E913DCC58B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="daa98ab5-b0ae-4511-837f-5a99de3b2e1b"/>
+    <ds:schemaRef ds:uri="91f9b605-f644-4f42-96d9-fc23afc4f13c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Arbeitsdokumente/Longlist CRM Systems.xlsx
+++ b/Arbeitsdokumente/Longlist CRM Systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262230D9-868F-4266-AB05-3251CA8A6824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F55797-D5A3-4F27-BE03-4FB6DDA8D4A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Longlist" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Longlist!$A$4:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Longlist!$A$4:$M$16</definedName>
     <definedName name="Auswahlkriterien">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Longlist!$A$1:$H$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Longlist!$A:$B</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
   <si>
     <t>Nischenabieter</t>
   </si>
@@ -143,15 +143,6 @@
   </si>
   <si>
     <t>Anbieter 7</t>
-  </si>
-  <si>
-    <t>Anbieter 8</t>
-  </si>
-  <si>
-    <t>Anbieter 9</t>
-  </si>
-  <si>
-    <t>Anbieter 10</t>
   </si>
   <si>
     <t>Odoo</t>
@@ -203,9 +194,6 @@
   </si>
   <si>
     <t>Relevanten Sprachen</t>
-  </si>
-  <si>
-    <t>Schnittstellen</t>
   </si>
   <si>
     <t>Betriebssystem</t>
@@ -267,9 +255,6 @@
     <t>Deutsch, Englisch</t>
   </si>
   <si>
-    <t>drupal, Wordpress und joomla, Stripe, MailChimp, Clickatell, Twilio, iATS Payments, Sage Pay, eWAY, Omnipay, GoToWebinar, Google Apps uvm.</t>
-  </si>
-  <si>
     <t>JavaScript, PHP</t>
   </si>
   <si>
@@ -288,18 +273,12 @@
     <t>iOS</t>
   </si>
   <si>
-    <t>nicht              vorhanden</t>
-  </si>
-  <si>
     <t>https://1crm-system.de</t>
   </si>
   <si>
     <t>Deutsch</t>
   </si>
   <si>
-    <t>Google, Dropbox, Woocommerce, Typo3, Magento, Microsoft Outlook Integration</t>
-  </si>
-  <si>
     <t>Linux</t>
   </si>
   <si>
@@ -307,9 +286,6 @@
   </si>
   <si>
     <t>PHP</t>
-  </si>
-  <si>
-    <t>MailChimp, Gmail, WordPress, über einen externen Partner (Riva) Anbindung an GroupWise, Outlook plugin</t>
   </si>
   <si>
     <t xml:space="preserve">Englisch, (Deutsch – 
@@ -322,9 +298,6 @@
     <t>Kontaktverwaltung, Angebote, Marketingkampagnen, E-Mail-Kampagnen, Auswertungen, Projektverwaltung, Rechnungen, Verträge, Events usw.</t>
   </si>
   <si>
-    <t xml:space="preserve">kein </t>
-  </si>
-  <si>
     <t>EspoCRM</t>
   </si>
   <si>
@@ -339,6 +312,78 @@
   </si>
   <si>
     <t xml:space="preserve">Vtiger CRM </t>
+  </si>
+  <si>
+    <t>SugarCRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunden- /Konatkverwaltung,  Service und Support Management, Import und Export </t>
+  </si>
+  <si>
+    <t>Linux, macOS, Windows</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>iOS, Android</t>
+  </si>
+  <si>
+    <t>unbekannt</t>
+  </si>
+  <si>
+    <t>Mitgliederverwaltung, Kontaktverwaltung, Spendenverwaltung, Eventmangement, Kampagnenmangement, Auswertungen, keine Veranstaltungen, Service und Support Management, kein Projekt Management</t>
+  </si>
+  <si>
+    <t>hängt vom Server ab</t>
+  </si>
+  <si>
+    <t>Ticketing, Event schedule, Social media integration, Email marketing, Google Analytics integration, Sponsor management</t>
+  </si>
+  <si>
+    <t>nicht vorhanden</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsch, Englisch </t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Englisch</t>
+  </si>
+  <si>
+    <t>MySQL, Microsoft SQL Server</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>eignet sich anhand der Funktionalitäten am besten</t>
+  </si>
+  <si>
+    <t>CRM Lösung für NON-Profit Organisationen</t>
+  </si>
+  <si>
+    <t>bietet viele Funktionalitäten</t>
+  </si>
+  <si>
+    <t>für kleine bis mittlere Unternehmen</t>
+  </si>
+  <si>
+    <t>Teilweise Module zum Zahlen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> keine direkte Funktion für Organisieren von  Veranstaltungen</t>
+  </si>
+  <si>
+    <t>Einfache Personalisierung per Drag &amp; Drop</t>
   </si>
 </sst>
 </file>
@@ -598,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -652,6 +697,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -688,7 +742,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -736,15 +790,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -764,7 +809,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -772,9 +816,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -796,17 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -838,23 +868,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="32" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -864,6 +882,39 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -901,7 +952,376 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -951,6 +1371,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5010,6 +5450,164 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="47">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Anzahl von Firmenname" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
   <location ref="A21:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="47">
@@ -5161,164 +5759,6 @@
           </reference>
           <reference field="7" count="1" selected="0">
             <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="47">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Anzahl von Firmenname" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -5718,13 +6158,13 @@
   <sheetPr codeName="Tabelle3">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:DW22"/>
+  <dimension ref="A1:DV22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5736,25 +6176,25 @@
     <col min="5" max="5" width="25.5546875" style="13" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="17.109375" style="13" customWidth="1" outlineLevel="1"/>
     <col min="7" max="8" width="28.5546875" style="13" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.44140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="13" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="32" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="20" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="22" max="24" width="30.44140625" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="23.88671875" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="31" max="33" width="28.5546875" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="16384" width="11.44140625" style="9"/>
+    <col min="11" max="12" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="32" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="19" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="21" max="23" width="30.44140625" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="25" max="28" width="23.88671875" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="28.5546875" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" s="17" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:126" s="17" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="24"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -5784,16 +6224,15 @@
       <c r="AE1" s="19"/>
       <c r="AF1" s="19"/>
       <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
     </row>
-    <row r="2" spans="1:127" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:126" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="35">
         <v>43628</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -5810,7 +6249,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
@@ -5820,15 +6259,14 @@
       <c r="AA2" s="16"/>
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
+      <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:127" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+    <row r="3" spans="1:126" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -5836,852 +6274,927 @@
       <c r="H3" s="10"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:127" s="22" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:126" s="22" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="H4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="I4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="K4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="L4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="M4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="N4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="32"/>
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="32"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="32"/>
+      <c r="CK4" s="32"/>
+      <c r="CL4" s="32"/>
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
+      <c r="CZ4" s="32"/>
+      <c r="DA4" s="32"/>
+      <c r="DB4" s="32"/>
+      <c r="DC4" s="32"/>
+      <c r="DD4" s="32"/>
+      <c r="DE4" s="32"/>
+      <c r="DF4" s="32"/>
+    </row>
+    <row r="5" spans="1:126" s="23" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="33"/>
+      <c r="CE5" s="33"/>
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33"/>
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="33"/>
+      <c r="CJ5" s="33"/>
+      <c r="CK5" s="33"/>
+      <c r="CL5" s="33"/>
+      <c r="CM5" s="33"/>
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33"/>
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="33"/>
+      <c r="CR5" s="33"/>
+      <c r="CS5" s="33"/>
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33"/>
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="33"/>
+      <c r="CX5" s="33"/>
+      <c r="CY5" s="33"/>
+      <c r="CZ5" s="33"/>
+      <c r="DA5" s="33"/>
+      <c r="DB5" s="33"/>
+      <c r="DC5" s="33"/>
+      <c r="DD5" s="33"/>
+      <c r="DE5" s="33"/>
+      <c r="DF5" s="33"/>
+    </row>
+    <row r="6" spans="1:126" s="47" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+    </row>
+    <row r="7" spans="1:126" s="47" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="34" t="s">
+      <c r="D7" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="F7" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF4" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="36"/>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="36"/>
-      <c r="BQ4" s="36"/>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="36"/>
-      <c r="BV4" s="36"/>
-      <c r="BW4" s="36"/>
-      <c r="BX4" s="36"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="36"/>
-      <c r="CA4" s="36"/>
-      <c r="CB4" s="36"/>
-      <c r="CC4" s="36"/>
-      <c r="CD4" s="36"/>
-      <c r="CE4" s="36"/>
-      <c r="CF4" s="36"/>
-      <c r="CG4" s="36"/>
-      <c r="CH4" s="36"/>
-      <c r="CI4" s="36"/>
-      <c r="CJ4" s="36"/>
-      <c r="CK4" s="36"/>
-      <c r="CL4" s="36"/>
-      <c r="CM4" s="36"/>
-      <c r="CN4" s="36"/>
-      <c r="CO4" s="36"/>
-      <c r="CP4" s="36"/>
-      <c r="CQ4" s="36"/>
-      <c r="CR4" s="36"/>
-      <c r="CS4" s="36"/>
-      <c r="CT4" s="36"/>
-      <c r="CU4" s="36"/>
-      <c r="CV4" s="36"/>
-      <c r="CW4" s="36"/>
-      <c r="CX4" s="36"/>
-      <c r="CY4" s="36"/>
-      <c r="CZ4" s="36"/>
-      <c r="DA4" s="36"/>
-      <c r="DB4" s="36"/>
-      <c r="DC4" s="36"/>
-      <c r="DD4" s="36"/>
-      <c r="DE4" s="36"/>
-      <c r="DF4" s="36"/>
-      <c r="DG4" s="36"/>
+      <c r="I7" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
     </row>
-    <row r="5" spans="1:127" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
-      <c r="BJ5" s="38"/>
-      <c r="BK5" s="38"/>
-      <c r="BL5" s="38"/>
-      <c r="BM5" s="38"/>
-      <c r="BN5" s="38"/>
-      <c r="BO5" s="38"/>
-      <c r="BP5" s="38"/>
-      <c r="BQ5" s="38"/>
-      <c r="BR5" s="38"/>
-      <c r="BS5" s="38"/>
-      <c r="BT5" s="38"/>
-      <c r="BU5" s="38"/>
-      <c r="BV5" s="38"/>
-      <c r="BW5" s="38"/>
-      <c r="BX5" s="38"/>
-      <c r="BY5" s="38"/>
-      <c r="BZ5" s="38"/>
-      <c r="CA5" s="38"/>
-      <c r="CB5" s="38"/>
-      <c r="CC5" s="38"/>
-      <c r="CD5" s="38"/>
-      <c r="CE5" s="38"/>
-      <c r="CF5" s="38"/>
-      <c r="CG5" s="38"/>
-      <c r="CH5" s="38"/>
-      <c r="CI5" s="38"/>
-      <c r="CJ5" s="38"/>
-      <c r="CK5" s="38"/>
-      <c r="CL5" s="38"/>
-      <c r="CM5" s="38"/>
-      <c r="CN5" s="38"/>
-      <c r="CO5" s="38"/>
-      <c r="CP5" s="38"/>
-      <c r="CQ5" s="38"/>
-      <c r="CR5" s="38"/>
-      <c r="CS5" s="38"/>
-      <c r="CT5" s="38"/>
-      <c r="CU5" s="38"/>
-      <c r="CV5" s="38"/>
-      <c r="CW5" s="38"/>
-      <c r="CX5" s="38"/>
-      <c r="CY5" s="38"/>
-      <c r="CZ5" s="38"/>
-      <c r="DA5" s="38"/>
-      <c r="DB5" s="38"/>
-      <c r="DC5" s="38"/>
-      <c r="DD5" s="38"/>
-      <c r="DE5" s="38"/>
-      <c r="DF5" s="38"/>
-      <c r="DG5" s="38"/>
+    <row r="8" spans="1:126" s="47" customFormat="1" ht="109.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
     </row>
-    <row r="6" spans="1:127" s="49" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="68" t="s">
+    <row r="9" spans="1:126" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33"/>
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33"/>
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33"/>
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33"/>
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33"/>
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33"/>
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="33"/>
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="33"/>
+      <c r="CE9" s="33"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
+      <c r="CH9" s="33"/>
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="33"/>
+      <c r="CL9" s="33"/>
+      <c r="CM9" s="33"/>
+      <c r="CN9" s="33"/>
+      <c r="CO9" s="33"/>
+      <c r="CP9" s="33"/>
+      <c r="CQ9" s="33"/>
+      <c r="CR9" s="33"/>
+      <c r="CS9" s="33"/>
+      <c r="CT9" s="33"/>
+      <c r="CU9" s="33"/>
+      <c r="CV9" s="33"/>
+      <c r="CW9" s="33"/>
+      <c r="CX9" s="33"/>
+      <c r="CY9" s="33"/>
+      <c r="CZ9" s="33"/>
+      <c r="DA9" s="33"/>
+      <c r="DB9" s="33"/>
+      <c r="DC9" s="33"/>
+      <c r="DD9" s="33"/>
+      <c r="DE9" s="33"/>
+      <c r="DF9" s="33"/>
+      <c r="DG9" s="33"/>
+      <c r="DH9" s="33"/>
+      <c r="DI9" s="33"/>
+      <c r="DJ9" s="33"/>
+      <c r="DK9" s="33"/>
+      <c r="DL9" s="33"/>
+      <c r="DM9" s="33"/>
+      <c r="DN9" s="33"/>
+      <c r="DO9" s="33"/>
+      <c r="DP9" s="33"/>
+      <c r="DQ9" s="33"/>
+      <c r="DR9" s="33"/>
+      <c r="DS9" s="33"/>
+      <c r="DT9" s="33"/>
+      <c r="DU9" s="33"/>
+      <c r="DV9" s="33"/>
+    </row>
+    <row r="10" spans="1:126" s="66" customFormat="1" ht="124.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="42">
+        <v>3</v>
+      </c>
+      <c r="E10" s="53">
+        <v>750</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+    </row>
+    <row r="11" spans="1:126" s="47" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
+      <c r="K11" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
     </row>
-    <row r="7" spans="1:127" s="57" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="69" t="s">
+    <row r="12" spans="1:126" s="47" customFormat="1" ht="140.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
+      <c r="H12" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
     </row>
-    <row r="8" spans="1:127" s="60" customFormat="1" ht="109.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="68" t="s">
+    <row r="13" spans="1:126" s="47" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="42">
+        <v>100</v>
+      </c>
+      <c r="E13" s="43">
+        <v>1000000</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="45" t="s">
+      <c r="H13" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I13" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
+      <c r="L13" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
     </row>
-    <row r="9" spans="1:127" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38"/>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38"/>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38"/>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="38"/>
-      <c r="BG9" s="38"/>
-      <c r="BH9" s="38"/>
-      <c r="BI9" s="38"/>
-      <c r="BJ9" s="38"/>
-      <c r="BK9" s="38"/>
-      <c r="BL9" s="38"/>
-      <c r="BM9" s="38"/>
-      <c r="BN9" s="38"/>
-      <c r="BO9" s="38"/>
-      <c r="BP9" s="38"/>
-      <c r="BQ9" s="38"/>
-      <c r="BR9" s="38"/>
-      <c r="BS9" s="38"/>
-      <c r="BT9" s="38"/>
-      <c r="BU9" s="38"/>
-      <c r="BV9" s="38"/>
-      <c r="BW9" s="38"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38"/>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="38"/>
-      <c r="CI9" s="38"/>
-      <c r="CJ9" s="38"/>
-      <c r="CK9" s="38"/>
-      <c r="CL9" s="38"/>
-      <c r="CM9" s="38"/>
-      <c r="CN9" s="38"/>
-      <c r="CO9" s="38"/>
-      <c r="CP9" s="38"/>
-      <c r="CQ9" s="38"/>
-      <c r="CR9" s="38"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="38"/>
-      <c r="CU9" s="38"/>
-      <c r="CV9" s="38"/>
-      <c r="CW9" s="38"/>
-      <c r="CX9" s="38"/>
-      <c r="CY9" s="38"/>
-      <c r="CZ9" s="38"/>
-      <c r="DA9" s="38"/>
-      <c r="DB9" s="38"/>
-      <c r="DC9" s="38"/>
-      <c r="DD9" s="38"/>
-      <c r="DE9" s="38"/>
-      <c r="DF9" s="38"/>
-      <c r="DG9" s="38"/>
-      <c r="DH9" s="38"/>
-      <c r="DI9" s="38"/>
-      <c r="DJ9" s="38"/>
-      <c r="DK9" s="38"/>
-      <c r="DL9" s="38"/>
-      <c r="DM9" s="38"/>
-      <c r="DN9" s="38"/>
-      <c r="DO9" s="38"/>
-      <c r="DP9" s="38"/>
-      <c r="DQ9" s="38"/>
-      <c r="DR9" s="38"/>
-      <c r="DS9" s="38"/>
-      <c r="DT9" s="38"/>
-      <c r="DU9" s="38"/>
-      <c r="DV9" s="38"/>
-      <c r="DW9" s="38"/>
+    <row r="14" spans="1:126" s="50" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
     </row>
-    <row r="10" spans="1:127" s="65" customFormat="1" ht="124.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="44">
-        <v>3</v>
-      </c>
-      <c r="E10" s="61">
-        <v>750</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
+    <row r="15" spans="1:126" s="50" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
     </row>
-    <row r="11" spans="1:127" s="60" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-    </row>
-    <row r="12" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-    </row>
-    <row r="13" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-    </row>
-    <row r="14" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-    </row>
-    <row r="15" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-    </row>
-    <row r="16" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
+    <row r="16" spans="1:126" s="50" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
@@ -6718,34 +7231,47 @@
       <c r="C22" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N16" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A4:M16" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C15 C11">
-    <cfRule type="duplicateValues" dxfId="11" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C1048576 C2:C5 B1 C9">
-    <cfRule type="duplicateValues" dxfId="9" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6 C8">
-    <cfRule type="duplicateValues" dxfId="2" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="1" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12 C14">
-    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"Cross-platform"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"Linux, macOS, Windows"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"CRM Lösung für NON-Profit Organisationen"</formula>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{B84C1E36-11AC-4061-9A7E-251503A94C44}"/>
@@ -6760,7 +7286,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{E3EC7C04-1D0A-4112-8FE3-C886FF74FF67}">
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{E3EC7C04-1D0A-4112-8FE3-C886FF74FF67}">
             <xm:f>NOT(ISERROR(SEARCH("-",J6)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -6775,11 +7301,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>T9:AH9 J6:T6 U6:AD1048576 J8:T9 K7:L7 O7:T7 J11:T16 K10:T10</xm:sqref>
+          <xm:sqref>S9:AG9 T6:AC1048576 N7:S7 J8:J9 J11:J16 L8:S10 K6:K15 J6:S6 L12:S16 L11 N11:S11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{01EEB067-DA54-4F8D-9BC3-C701369D85C4}">
-            <xm:f>NOT(ISERROR(SEARCH("-",U2)))</xm:f>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{01EEB067-DA54-4F8D-9BC3-C701369D85C4}">
+            <xm:f>NOT(ISERROR(SEARCH("-",T2)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -6793,7 +7319,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>U2:AD3</xm:sqref>
+          <xm:sqref>T2:AC3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6802,12 +7328,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7014,15 +7537,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBC73EDD-9F3A-463B-B1FD-FE2A0ED29205}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6539C82E-ABB7-4E02-A471-7E913DCC58B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="daa98ab5-b0ae-4511-837f-5a99de3b2e1b"/>
+    <ds:schemaRef ds:uri="91f9b605-f644-4f42-96d9-fc23afc4f13c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7047,18 +7582,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6539C82E-ABB7-4E02-A471-7E913DCC58B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBC73EDD-9F3A-463B-B1FD-FE2A0ED29205}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="daa98ab5-b0ae-4511-837f-5a99de3b2e1b"/>
-    <ds:schemaRef ds:uri="91f9b605-f644-4f42-96d9-fc23afc4f13c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Arbeitsdokumente/Longlist CRM Systems.xlsx
+++ b/Arbeitsdokumente/Longlist CRM Systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F55797-D5A3-4F27-BE03-4FB6DDA8D4A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262230D9-868F-4266-AB05-3251CA8A6824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Longlist" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Longlist!$A$4:$M$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Longlist!$A$4:$N$16</definedName>
     <definedName name="Auswahlkriterien">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Longlist!$A$1:$H$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Longlist!$A:$B</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>Nischenabieter</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>Anbieter 7</t>
+  </si>
+  <si>
+    <t>Anbieter 8</t>
+  </si>
+  <si>
+    <t>Anbieter 9</t>
+  </si>
+  <si>
+    <t>Anbieter 10</t>
   </si>
   <si>
     <t>Odoo</t>
@@ -194,6 +203,9 @@
   </si>
   <si>
     <t>Relevanten Sprachen</t>
+  </si>
+  <si>
+    <t>Schnittstellen</t>
   </si>
   <si>
     <t>Betriebssystem</t>
@@ -255,6 +267,9 @@
     <t>Deutsch, Englisch</t>
   </si>
   <si>
+    <t>drupal, Wordpress und joomla, Stripe, MailChimp, Clickatell, Twilio, iATS Payments, Sage Pay, eWAY, Omnipay, GoToWebinar, Google Apps uvm.</t>
+  </si>
+  <si>
     <t>JavaScript, PHP</t>
   </si>
   <si>
@@ -273,12 +288,18 @@
     <t>iOS</t>
   </si>
   <si>
+    <t>nicht              vorhanden</t>
+  </si>
+  <si>
     <t>https://1crm-system.de</t>
   </si>
   <si>
     <t>Deutsch</t>
   </si>
   <si>
+    <t>Google, Dropbox, Woocommerce, Typo3, Magento, Microsoft Outlook Integration</t>
+  </si>
+  <si>
     <t>Linux</t>
   </si>
   <si>
@@ -286,6 +307,9 @@
   </si>
   <si>
     <t>PHP</t>
+  </si>
+  <si>
+    <t>MailChimp, Gmail, WordPress, über einen externen Partner (Riva) Anbindung an GroupWise, Outlook plugin</t>
   </si>
   <si>
     <t xml:space="preserve">Englisch, (Deutsch – 
@@ -298,6 +322,9 @@
     <t>Kontaktverwaltung, Angebote, Marketingkampagnen, E-Mail-Kampagnen, Auswertungen, Projektverwaltung, Rechnungen, Verträge, Events usw.</t>
   </si>
   <si>
+    <t xml:space="preserve">kein </t>
+  </si>
+  <si>
     <t>EspoCRM</t>
   </si>
   <si>
@@ -312,78 +339,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vtiger CRM </t>
-  </si>
-  <si>
-    <t>SugarCRM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunden- /Konatkverwaltung,  Service und Support Management, Import und Export </t>
-  </si>
-  <si>
-    <t>Linux, macOS, Windows</t>
-  </si>
-  <si>
-    <t>MySQL</t>
-  </si>
-  <si>
-    <t>iOS, Android</t>
-  </si>
-  <si>
-    <t>unbekannt</t>
-  </si>
-  <si>
-    <t>Mitgliederverwaltung, Kontaktverwaltung, Spendenverwaltung, Eventmangement, Kampagnenmangement, Auswertungen, keine Veranstaltungen, Service und Support Management, kein Projekt Management</t>
-  </si>
-  <si>
-    <t>hängt vom Server ab</t>
-  </si>
-  <si>
-    <t>Ticketing, Event schedule, Social media integration, Email marketing, Google Analytics integration, Sponsor management</t>
-  </si>
-  <si>
-    <t>nicht vorhanden</t>
-  </si>
-  <si>
-    <t>PostgreSQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutsch, Englisch </t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>Englisch</t>
-  </si>
-  <si>
-    <t>MySQL, Microsoft SQL Server</t>
-  </si>
-  <si>
-    <t>Anmerkung</t>
-  </si>
-  <si>
-    <t>eignet sich anhand der Funktionalitäten am besten</t>
-  </si>
-  <si>
-    <t>CRM Lösung für NON-Profit Organisationen</t>
-  </si>
-  <si>
-    <t>bietet viele Funktionalitäten</t>
-  </si>
-  <si>
-    <t>für kleine bis mittlere Unternehmen</t>
-  </si>
-  <si>
-    <t>Teilweise Module zum Zahlen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> keine direkte Funktion für Organisieren von  Veranstaltungen</t>
-  </si>
-  <si>
-    <t>Einfache Personalisierung per Drag &amp; Drop</t>
   </si>
 </sst>
 </file>
@@ -643,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -697,15 +652,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -742,7 +688,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -790,6 +736,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -809,6 +764,7 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -816,6 +772,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -837,6 +796,17 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -868,11 +838,23 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="32" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -882,39 +864,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -952,376 +901,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1371,26 +951,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5450,164 +5010,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="47">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Anzahl von Firmenname" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
   <location ref="A21:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="47">
@@ -5759,6 +5161,164 @@
           </reference>
           <reference field="7" count="1" selected="0">
             <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="47">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Anzahl von Firmenname" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -6158,13 +5718,13 @@
   <sheetPr codeName="Tabelle3">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:DV22"/>
+  <dimension ref="A1:DW22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -6176,25 +5736,25 @@
     <col min="5" max="5" width="25.5546875" style="13" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="17.109375" style="13" customWidth="1" outlineLevel="1"/>
     <col min="7" max="8" width="28.5546875" style="13" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="15" customWidth="1"/>
     <col min="10" max="10" width="30.44140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="12" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="32" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="19" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="21" max="23" width="30.44140625" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="25" max="28" width="23.88671875" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="28.5546875" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="16384" width="11.44140625" style="9"/>
+    <col min="11" max="13" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="32" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="20" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="22" max="24" width="30.44140625" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="23.88671875" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="28.5546875" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="17" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:127" s="17" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="27"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -6224,15 +5784,16 @@
       <c r="AE1" s="19"/>
       <c r="AF1" s="19"/>
       <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
     </row>
-    <row r="2" spans="1:126" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:127" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="40">
         <v>43628</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -6249,7 +5810,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="16"/>
+      <c r="T2" s="6"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
@@ -6259,14 +5820,15 @@
       <c r="AA2" s="16"/>
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
-      <c r="AD2" s="7"/>
+      <c r="AD2" s="16"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:126" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+    <row r="3" spans="1:127" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -6274,927 +5836,852 @@
       <c r="H3" s="10"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:126" s="22" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:127" s="22" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
+      <c r="BJ4" s="36"/>
+      <c r="BK4" s="36"/>
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="36"/>
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="36"/>
+      <c r="BQ4" s="36"/>
+      <c r="BR4" s="36"/>
+      <c r="BS4" s="36"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="36"/>
+      <c r="BV4" s="36"/>
+      <c r="BW4" s="36"/>
+      <c r="BX4" s="36"/>
+      <c r="BY4" s="36"/>
+      <c r="BZ4" s="36"/>
+      <c r="CA4" s="36"/>
+      <c r="CB4" s="36"/>
+      <c r="CC4" s="36"/>
+      <c r="CD4" s="36"/>
+      <c r="CE4" s="36"/>
+      <c r="CF4" s="36"/>
+      <c r="CG4" s="36"/>
+      <c r="CH4" s="36"/>
+      <c r="CI4" s="36"/>
+      <c r="CJ4" s="36"/>
+      <c r="CK4" s="36"/>
+      <c r="CL4" s="36"/>
+      <c r="CM4" s="36"/>
+      <c r="CN4" s="36"/>
+      <c r="CO4" s="36"/>
+      <c r="CP4" s="36"/>
+      <c r="CQ4" s="36"/>
+      <c r="CR4" s="36"/>
+      <c r="CS4" s="36"/>
+      <c r="CT4" s="36"/>
+      <c r="CU4" s="36"/>
+      <c r="CV4" s="36"/>
+      <c r="CW4" s="36"/>
+      <c r="CX4" s="36"/>
+      <c r="CY4" s="36"/>
+      <c r="CZ4" s="36"/>
+      <c r="DA4" s="36"/>
+      <c r="DB4" s="36"/>
+      <c r="DC4" s="36"/>
+      <c r="DD4" s="36"/>
+      <c r="DE4" s="36"/>
+      <c r="DF4" s="36"/>
+      <c r="DG4" s="36"/>
+    </row>
+    <row r="5" spans="1:127" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="38"/>
+      <c r="BP5" s="38"/>
+      <c r="BQ5" s="38"/>
+      <c r="BR5" s="38"/>
+      <c r="BS5" s="38"/>
+      <c r="BT5" s="38"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="38"/>
+      <c r="BW5" s="38"/>
+      <c r="BX5" s="38"/>
+      <c r="BY5" s="38"/>
+      <c r="BZ5" s="38"/>
+      <c r="CA5" s="38"/>
+      <c r="CB5" s="38"/>
+      <c r="CC5" s="38"/>
+      <c r="CD5" s="38"/>
+      <c r="CE5" s="38"/>
+      <c r="CF5" s="38"/>
+      <c r="CG5" s="38"/>
+      <c r="CH5" s="38"/>
+      <c r="CI5" s="38"/>
+      <c r="CJ5" s="38"/>
+      <c r="CK5" s="38"/>
+      <c r="CL5" s="38"/>
+      <c r="CM5" s="38"/>
+      <c r="CN5" s="38"/>
+      <c r="CO5" s="38"/>
+      <c r="CP5" s="38"/>
+      <c r="CQ5" s="38"/>
+      <c r="CR5" s="38"/>
+      <c r="CS5" s="38"/>
+      <c r="CT5" s="38"/>
+      <c r="CU5" s="38"/>
+      <c r="CV5" s="38"/>
+      <c r="CW5" s="38"/>
+      <c r="CX5" s="38"/>
+      <c r="CY5" s="38"/>
+      <c r="CZ5" s="38"/>
+      <c r="DA5" s="38"/>
+      <c r="DB5" s="38"/>
+      <c r="DC5" s="38"/>
+      <c r="DD5" s="38"/>
+      <c r="DE5" s="38"/>
+      <c r="DF5" s="38"/>
+      <c r="DG5" s="38"/>
+    </row>
+    <row r="6" spans="1:127" s="49" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="C6" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+    </row>
+    <row r="7" spans="1:127" s="57" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="C7" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+    </row>
+    <row r="8" spans="1:127" s="60" customFormat="1" ht="109.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE4" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="32"/>
-      <c r="BX4" s="32"/>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32"/>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="32"/>
-      <c r="CK4" s="32"/>
-      <c r="CL4" s="32"/>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32"/>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
-      <c r="CZ4" s="32"/>
-      <c r="DA4" s="32"/>
-      <c r="DB4" s="32"/>
-      <c r="DC4" s="32"/>
-      <c r="DD4" s="32"/>
-      <c r="DE4" s="32"/>
-      <c r="DF4" s="32"/>
+      <c r="C8" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
     </row>
-    <row r="5" spans="1:126" s="23" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
-      <c r="CE5" s="33"/>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33"/>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="33"/>
-      <c r="CJ5" s="33"/>
-      <c r="CK5" s="33"/>
-      <c r="CL5" s="33"/>
-      <c r="CM5" s="33"/>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33"/>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="33"/>
-      <c r="CR5" s="33"/>
-      <c r="CS5" s="33"/>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33"/>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="33"/>
-      <c r="CX5" s="33"/>
-      <c r="CY5" s="33"/>
-      <c r="CZ5" s="33"/>
-      <c r="DA5" s="33"/>
-      <c r="DB5" s="33"/>
-      <c r="DC5" s="33"/>
-      <c r="DD5" s="33"/>
-      <c r="DE5" s="33"/>
-      <c r="DF5" s="33"/>
+    <row r="9" spans="1:127" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="38"/>
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="38"/>
+      <c r="BN9" s="38"/>
+      <c r="BO9" s="38"/>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="38"/>
+      <c r="BR9" s="38"/>
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="38"/>
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38"/>
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="38"/>
+      <c r="CI9" s="38"/>
+      <c r="CJ9" s="38"/>
+      <c r="CK9" s="38"/>
+      <c r="CL9" s="38"/>
+      <c r="CM9" s="38"/>
+      <c r="CN9" s="38"/>
+      <c r="CO9" s="38"/>
+      <c r="CP9" s="38"/>
+      <c r="CQ9" s="38"/>
+      <c r="CR9" s="38"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="38"/>
+      <c r="CU9" s="38"/>
+      <c r="CV9" s="38"/>
+      <c r="CW9" s="38"/>
+      <c r="CX9" s="38"/>
+      <c r="CY9" s="38"/>
+      <c r="CZ9" s="38"/>
+      <c r="DA9" s="38"/>
+      <c r="DB9" s="38"/>
+      <c r="DC9" s="38"/>
+      <c r="DD9" s="38"/>
+      <c r="DE9" s="38"/>
+      <c r="DF9" s="38"/>
+      <c r="DG9" s="38"/>
+      <c r="DH9" s="38"/>
+      <c r="DI9" s="38"/>
+      <c r="DJ9" s="38"/>
+      <c r="DK9" s="38"/>
+      <c r="DL9" s="38"/>
+      <c r="DM9" s="38"/>
+      <c r="DN9" s="38"/>
+      <c r="DO9" s="38"/>
+      <c r="DP9" s="38"/>
+      <c r="DQ9" s="38"/>
+      <c r="DR9" s="38"/>
+      <c r="DS9" s="38"/>
+      <c r="DT9" s="38"/>
+      <c r="DU9" s="38"/>
+      <c r="DV9" s="38"/>
+      <c r="DW9" s="38"/>
     </row>
-    <row r="6" spans="1:126" s="47" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="57" t="s">
+    <row r="10" spans="1:127" s="65" customFormat="1" ht="124.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="44">
+        <v>3</v>
+      </c>
+      <c r="E10" s="61">
+        <v>750</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+    </row>
+    <row r="11" spans="1:127" s="60" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+    </row>
+    <row r="12" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+    </row>
+    <row r="13" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+    </row>
+    <row r="14" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="59"/>
     </row>
-    <row r="7" spans="1:126" s="47" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="57" t="s">
+    <row r="15" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
     </row>
-    <row r="8" spans="1:126" s="47" customFormat="1" ht="109.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="57" t="s">
+    <row r="16" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-    </row>
-    <row r="9" spans="1:126" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33"/>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33"/>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33"/>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33"/>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33"/>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33"/>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33"/>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="33"/>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="33"/>
-      <c r="CA9" s="33"/>
-      <c r="CB9" s="33"/>
-      <c r="CC9" s="33"/>
-      <c r="CD9" s="33"/>
-      <c r="CE9" s="33"/>
-      <c r="CF9" s="33"/>
-      <c r="CG9" s="33"/>
-      <c r="CH9" s="33"/>
-      <c r="CI9" s="33"/>
-      <c r="CJ9" s="33"/>
-      <c r="CK9" s="33"/>
-      <c r="CL9" s="33"/>
-      <c r="CM9" s="33"/>
-      <c r="CN9" s="33"/>
-      <c r="CO9" s="33"/>
-      <c r="CP9" s="33"/>
-      <c r="CQ9" s="33"/>
-      <c r="CR9" s="33"/>
-      <c r="CS9" s="33"/>
-      <c r="CT9" s="33"/>
-      <c r="CU9" s="33"/>
-      <c r="CV9" s="33"/>
-      <c r="CW9" s="33"/>
-      <c r="CX9" s="33"/>
-      <c r="CY9" s="33"/>
-      <c r="CZ9" s="33"/>
-      <c r="DA9" s="33"/>
-      <c r="DB9" s="33"/>
-      <c r="DC9" s="33"/>
-      <c r="DD9" s="33"/>
-      <c r="DE9" s="33"/>
-      <c r="DF9" s="33"/>
-      <c r="DG9" s="33"/>
-      <c r="DH9" s="33"/>
-      <c r="DI9" s="33"/>
-      <c r="DJ9" s="33"/>
-      <c r="DK9" s="33"/>
-      <c r="DL9" s="33"/>
-      <c r="DM9" s="33"/>
-      <c r="DN9" s="33"/>
-      <c r="DO9" s="33"/>
-      <c r="DP9" s="33"/>
-      <c r="DQ9" s="33"/>
-      <c r="DR9" s="33"/>
-      <c r="DS9" s="33"/>
-      <c r="DT9" s="33"/>
-      <c r="DU9" s="33"/>
-      <c r="DV9" s="33"/>
-    </row>
-    <row r="10" spans="1:126" s="66" customFormat="1" ht="124.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="42">
-        <v>3</v>
-      </c>
-      <c r="E10" s="53">
-        <v>750</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-    </row>
-    <row r="11" spans="1:126" s="47" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-    </row>
-    <row r="12" spans="1:126" s="47" customFormat="1" ht="140.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-    </row>
-    <row r="13" spans="1:126" s="47" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="42">
-        <v>100</v>
-      </c>
-      <c r="E13" s="43">
-        <v>1000000</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-    </row>
-    <row r="14" spans="1:126" s="50" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-    </row>
-    <row r="15" spans="1:126" s="50" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-    </row>
-    <row r="16" spans="1:126" s="50" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="59"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
@@ -7231,47 +6718,34 @@
       <c r="C22" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:M16" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A4:N16" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C15 C11">
-    <cfRule type="duplicateValues" dxfId="26" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C1048576 C2:C5 B1 C9">
-    <cfRule type="duplicateValues" dxfId="24" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6 C8">
-    <cfRule type="duplicateValues" dxfId="20" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="19" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12 C14">
-    <cfRule type="duplicateValues" dxfId="18" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"Cross-platform"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
-      <formula>"Linux, macOS, Windows"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"CRM Lösung für NON-Profit Organisationen"</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{B84C1E36-11AC-4061-9A7E-251503A94C44}"/>
@@ -7286,7 +6760,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{E3EC7C04-1D0A-4112-8FE3-C886FF74FF67}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{E3EC7C04-1D0A-4112-8FE3-C886FF74FF67}">
             <xm:f>NOT(ISERROR(SEARCH("-",J6)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -7301,11 +6775,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S9:AG9 T6:AC1048576 N7:S7 J8:J9 J11:J16 L8:S10 K6:K15 J6:S6 L12:S16 L11 N11:S11</xm:sqref>
+          <xm:sqref>T9:AH9 J6:T6 U6:AD1048576 J8:T9 K7:L7 O7:T7 J11:T16 K10:T10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{01EEB067-DA54-4F8D-9BC3-C701369D85C4}">
-            <xm:f>NOT(ISERROR(SEARCH("-",T2)))</xm:f>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{01EEB067-DA54-4F8D-9BC3-C701369D85C4}">
+            <xm:f>NOT(ISERROR(SEARCH("-",U2)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -7319,7 +6793,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>T2:AC3</xm:sqref>
+          <xm:sqref>U2:AD3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7328,9 +6802,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7537,27 +7014,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6539C82E-ABB7-4E02-A471-7E913DCC58B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBC73EDD-9F3A-463B-B1FD-FE2A0ED29205}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="daa98ab5-b0ae-4511-837f-5a99de3b2e1b"/>
-    <ds:schemaRef ds:uri="91f9b605-f644-4f42-96d9-fc23afc4f13c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7582,9 +7047,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBC73EDD-9F3A-463B-B1FD-FE2A0ED29205}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6539C82E-ABB7-4E02-A471-7E913DCC58B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="daa98ab5-b0ae-4511-837f-5a99de3b2e1b"/>
+    <ds:schemaRef ds:uri="91f9b605-f644-4f42-96d9-fc23afc4f13c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Arbeitsdokumente/Longlist CRM Systems.xlsx
+++ b/Arbeitsdokumente/Longlist CRM Systems.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\Arbeitsdokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262230D9-868F-4266-AB05-3251CA8A6824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F007D0D-1219-47DE-BE5B-69EA1287DCE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Longlist" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Longlist!$A$4:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Longlist!$A$4:$M$16</definedName>
     <definedName name="Auswahlkriterien">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Longlist!$A$1:$H$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Longlist!$A:$B</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
   <si>
     <t>Nischenabieter</t>
   </si>
@@ -143,15 +143,6 @@
   </si>
   <si>
     <t>Anbieter 7</t>
-  </si>
-  <si>
-    <t>Anbieter 8</t>
-  </si>
-  <si>
-    <t>Anbieter 9</t>
-  </si>
-  <si>
-    <t>Anbieter 10</t>
   </si>
   <si>
     <t>Odoo</t>
@@ -203,9 +194,6 @@
   </si>
   <si>
     <t>Relevanten Sprachen</t>
-  </si>
-  <si>
-    <t>Schnittstellen</t>
   </si>
   <si>
     <t>Betriebssystem</t>
@@ -267,9 +255,6 @@
     <t>Deutsch, Englisch</t>
   </si>
   <si>
-    <t>drupal, Wordpress und joomla, Stripe, MailChimp, Clickatell, Twilio, iATS Payments, Sage Pay, eWAY, Omnipay, GoToWebinar, Google Apps uvm.</t>
-  </si>
-  <si>
     <t>JavaScript, PHP</t>
   </si>
   <si>
@@ -288,18 +273,12 @@
     <t>iOS</t>
   </si>
   <si>
-    <t>nicht              vorhanden</t>
-  </si>
-  <si>
     <t>https://1crm-system.de</t>
   </si>
   <si>
     <t>Deutsch</t>
   </si>
   <si>
-    <t>Google, Dropbox, Woocommerce, Typo3, Magento, Microsoft Outlook Integration</t>
-  </si>
-  <si>
     <t>Linux</t>
   </si>
   <si>
@@ -307,9 +286,6 @@
   </si>
   <si>
     <t>PHP</t>
-  </si>
-  <si>
-    <t>MailChimp, Gmail, WordPress, über einen externen Partner (Riva) Anbindung an GroupWise, Outlook plugin</t>
   </si>
   <si>
     <t xml:space="preserve">Englisch, (Deutsch – 
@@ -322,9 +298,6 @@
     <t>Kontaktverwaltung, Angebote, Marketingkampagnen, E-Mail-Kampagnen, Auswertungen, Projektverwaltung, Rechnungen, Verträge, Events usw.</t>
   </si>
   <si>
-    <t xml:space="preserve">kein </t>
-  </si>
-  <si>
     <t>EspoCRM</t>
   </si>
   <si>
@@ -339,6 +312,78 @@
   </si>
   <si>
     <t xml:space="preserve">Vtiger CRM </t>
+  </si>
+  <si>
+    <t>SugarCRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunden- /Konatkverwaltung,  Service und Support Management, Import und Export </t>
+  </si>
+  <si>
+    <t>Linux, macOS, Windows</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>iOS, Android</t>
+  </si>
+  <si>
+    <t>unbekannt</t>
+  </si>
+  <si>
+    <t>Mitgliederverwaltung, Kontaktverwaltung, Spendenverwaltung, Eventmangement, Kampagnenmangement, Auswertungen, keine Veranstaltungen, Service und Support Management, kein Projekt Management</t>
+  </si>
+  <si>
+    <t>hängt vom Server ab</t>
+  </si>
+  <si>
+    <t>Ticketing, Event schedule, Social media integration, Email marketing, Google Analytics integration, Sponsor management</t>
+  </si>
+  <si>
+    <t>nicht vorhanden</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsch, Englisch </t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Englisch</t>
+  </si>
+  <si>
+    <t>MySQL, Microsoft SQL Server</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>eignet sich anhand der Funktionalitäten am besten</t>
+  </si>
+  <si>
+    <t>CRM Lösung für NON-Profit Organisationen</t>
+  </si>
+  <si>
+    <t>bietet viele Funktionalitäten</t>
+  </si>
+  <si>
+    <t>für kleine bis mittlere Unternehmen</t>
+  </si>
+  <si>
+    <t>Teilweise Module zum Zahlen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> keine direkte Funktion für Organisieren von  Veranstaltungen</t>
+  </si>
+  <si>
+    <t>Einfache Personalisierung per Drag &amp; Drop</t>
   </si>
 </sst>
 </file>
@@ -598,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -652,6 +697,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -688,7 +742,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -736,15 +790,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -764,7 +809,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -772,9 +816,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -796,17 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -838,23 +868,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="32" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -864,6 +882,39 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -901,10 +952,54 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -929,28 +1024,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5718,13 +5791,13 @@
   <sheetPr codeName="Tabelle3">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:DW22"/>
+  <dimension ref="A1:DV22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5736,25 +5809,25 @@
     <col min="5" max="5" width="25.5546875" style="13" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="17.109375" style="13" customWidth="1" outlineLevel="1"/>
     <col min="7" max="8" width="28.5546875" style="13" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.44140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="13" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="32" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="20" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="22" max="24" width="30.44140625" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="23.88671875" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="31" max="33" width="28.5546875" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="16384" width="11.44140625" style="9"/>
+    <col min="11" max="12" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="32" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="19" width="28.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="21" max="23" width="30.44140625" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="25" max="28" width="23.88671875" style="16" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9.44140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="28.5546875" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" s="17" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:126" s="17" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="24"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -5784,16 +5857,15 @@
       <c r="AE1" s="19"/>
       <c r="AF1" s="19"/>
       <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
     </row>
-    <row r="2" spans="1:127" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:126" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="35">
         <v>43628</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -5810,7 +5882,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
@@ -5820,15 +5892,14 @@
       <c r="AA2" s="16"/>
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
+      <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:127" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+    <row r="3" spans="1:126" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -5836,852 +5907,927 @@
       <c r="H3" s="10"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:127" s="22" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:126" s="22" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="H4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="I4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="K4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="L4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="M4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="N4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="32"/>
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="32"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="32"/>
+      <c r="CK4" s="32"/>
+      <c r="CL4" s="32"/>
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
+      <c r="CZ4" s="32"/>
+      <c r="DA4" s="32"/>
+      <c r="DB4" s="32"/>
+      <c r="DC4" s="32"/>
+      <c r="DD4" s="32"/>
+      <c r="DE4" s="32"/>
+      <c r="DF4" s="32"/>
+    </row>
+    <row r="5" spans="1:126" s="23" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="33"/>
+      <c r="CE5" s="33"/>
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33"/>
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="33"/>
+      <c r="CJ5" s="33"/>
+      <c r="CK5" s="33"/>
+      <c r="CL5" s="33"/>
+      <c r="CM5" s="33"/>
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33"/>
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="33"/>
+      <c r="CR5" s="33"/>
+      <c r="CS5" s="33"/>
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33"/>
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="33"/>
+      <c r="CX5" s="33"/>
+      <c r="CY5" s="33"/>
+      <c r="CZ5" s="33"/>
+      <c r="DA5" s="33"/>
+      <c r="DB5" s="33"/>
+      <c r="DC5" s="33"/>
+      <c r="DD5" s="33"/>
+      <c r="DE5" s="33"/>
+      <c r="DF5" s="33"/>
+    </row>
+    <row r="6" spans="1:126" s="47" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+    </row>
+    <row r="7" spans="1:126" s="47" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="34" t="s">
+      <c r="D7" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="F7" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF4" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="36"/>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="36"/>
-      <c r="BQ4" s="36"/>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="36"/>
-      <c r="BV4" s="36"/>
-      <c r="BW4" s="36"/>
-      <c r="BX4" s="36"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="36"/>
-      <c r="CA4" s="36"/>
-      <c r="CB4" s="36"/>
-      <c r="CC4" s="36"/>
-      <c r="CD4" s="36"/>
-      <c r="CE4" s="36"/>
-      <c r="CF4" s="36"/>
-      <c r="CG4" s="36"/>
-      <c r="CH4" s="36"/>
-      <c r="CI4" s="36"/>
-      <c r="CJ4" s="36"/>
-      <c r="CK4" s="36"/>
-      <c r="CL4" s="36"/>
-      <c r="CM4" s="36"/>
-      <c r="CN4" s="36"/>
-      <c r="CO4" s="36"/>
-      <c r="CP4" s="36"/>
-      <c r="CQ4" s="36"/>
-      <c r="CR4" s="36"/>
-      <c r="CS4" s="36"/>
-      <c r="CT4" s="36"/>
-      <c r="CU4" s="36"/>
-      <c r="CV4" s="36"/>
-      <c r="CW4" s="36"/>
-      <c r="CX4" s="36"/>
-      <c r="CY4" s="36"/>
-      <c r="CZ4" s="36"/>
-      <c r="DA4" s="36"/>
-      <c r="DB4" s="36"/>
-      <c r="DC4" s="36"/>
-      <c r="DD4" s="36"/>
-      <c r="DE4" s="36"/>
-      <c r="DF4" s="36"/>
-      <c r="DG4" s="36"/>
+      <c r="I7" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
     </row>
-    <row r="5" spans="1:127" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
-      <c r="BJ5" s="38"/>
-      <c r="BK5" s="38"/>
-      <c r="BL5" s="38"/>
-      <c r="BM5" s="38"/>
-      <c r="BN5" s="38"/>
-      <c r="BO5" s="38"/>
-      <c r="BP5" s="38"/>
-      <c r="BQ5" s="38"/>
-      <c r="BR5" s="38"/>
-      <c r="BS5" s="38"/>
-      <c r="BT5" s="38"/>
-      <c r="BU5" s="38"/>
-      <c r="BV5" s="38"/>
-      <c r="BW5" s="38"/>
-      <c r="BX5" s="38"/>
-      <c r="BY5" s="38"/>
-      <c r="BZ5" s="38"/>
-      <c r="CA5" s="38"/>
-      <c r="CB5" s="38"/>
-      <c r="CC5" s="38"/>
-      <c r="CD5" s="38"/>
-      <c r="CE5" s="38"/>
-      <c r="CF5" s="38"/>
-      <c r="CG5" s="38"/>
-      <c r="CH5" s="38"/>
-      <c r="CI5" s="38"/>
-      <c r="CJ5" s="38"/>
-      <c r="CK5" s="38"/>
-      <c r="CL5" s="38"/>
-      <c r="CM5" s="38"/>
-      <c r="CN5" s="38"/>
-      <c r="CO5" s="38"/>
-      <c r="CP5" s="38"/>
-      <c r="CQ5" s="38"/>
-      <c r="CR5" s="38"/>
-      <c r="CS5" s="38"/>
-      <c r="CT5" s="38"/>
-      <c r="CU5" s="38"/>
-      <c r="CV5" s="38"/>
-      <c r="CW5" s="38"/>
-      <c r="CX5" s="38"/>
-      <c r="CY5" s="38"/>
-      <c r="CZ5" s="38"/>
-      <c r="DA5" s="38"/>
-      <c r="DB5" s="38"/>
-      <c r="DC5" s="38"/>
-      <c r="DD5" s="38"/>
-      <c r="DE5" s="38"/>
-      <c r="DF5" s="38"/>
-      <c r="DG5" s="38"/>
+    <row r="8" spans="1:126" s="47" customFormat="1" ht="109.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
     </row>
-    <row r="6" spans="1:127" s="49" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="68" t="s">
+    <row r="9" spans="1:126" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33"/>
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33"/>
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33"/>
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33"/>
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33"/>
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33"/>
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="33"/>
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="33"/>
+      <c r="CE9" s="33"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
+      <c r="CH9" s="33"/>
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="33"/>
+      <c r="CL9" s="33"/>
+      <c r="CM9" s="33"/>
+      <c r="CN9" s="33"/>
+      <c r="CO9" s="33"/>
+      <c r="CP9" s="33"/>
+      <c r="CQ9" s="33"/>
+      <c r="CR9" s="33"/>
+      <c r="CS9" s="33"/>
+      <c r="CT9" s="33"/>
+      <c r="CU9" s="33"/>
+      <c r="CV9" s="33"/>
+      <c r="CW9" s="33"/>
+      <c r="CX9" s="33"/>
+      <c r="CY9" s="33"/>
+      <c r="CZ9" s="33"/>
+      <c r="DA9" s="33"/>
+      <c r="DB9" s="33"/>
+      <c r="DC9" s="33"/>
+      <c r="DD9" s="33"/>
+      <c r="DE9" s="33"/>
+      <c r="DF9" s="33"/>
+      <c r="DG9" s="33"/>
+      <c r="DH9" s="33"/>
+      <c r="DI9" s="33"/>
+      <c r="DJ9" s="33"/>
+      <c r="DK9" s="33"/>
+      <c r="DL9" s="33"/>
+      <c r="DM9" s="33"/>
+      <c r="DN9" s="33"/>
+      <c r="DO9" s="33"/>
+      <c r="DP9" s="33"/>
+      <c r="DQ9" s="33"/>
+      <c r="DR9" s="33"/>
+      <c r="DS9" s="33"/>
+      <c r="DT9" s="33"/>
+      <c r="DU9" s="33"/>
+      <c r="DV9" s="33"/>
+    </row>
+    <row r="10" spans="1:126" s="66" customFormat="1" ht="124.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="42">
+        <v>3</v>
+      </c>
+      <c r="E10" s="53">
+        <v>750</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+    </row>
+    <row r="11" spans="1:126" s="47" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
+      <c r="K11" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
     </row>
-    <row r="7" spans="1:127" s="57" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="69" t="s">
+    <row r="12" spans="1:126" s="47" customFormat="1" ht="140.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
+      <c r="H12" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
     </row>
-    <row r="8" spans="1:127" s="60" customFormat="1" ht="109.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="68" t="s">
+    <row r="13" spans="1:126" s="47" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="42">
+        <v>100</v>
+      </c>
+      <c r="E13" s="43">
+        <v>1000000</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="45" t="s">
+      <c r="H13" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I13" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
+      <c r="L13" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
     </row>
-    <row r="9" spans="1:127" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38"/>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38"/>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38"/>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="38"/>
-      <c r="BG9" s="38"/>
-      <c r="BH9" s="38"/>
-      <c r="BI9" s="38"/>
-      <c r="BJ9" s="38"/>
-      <c r="BK9" s="38"/>
-      <c r="BL9" s="38"/>
-      <c r="BM9" s="38"/>
-      <c r="BN9" s="38"/>
-      <c r="BO9" s="38"/>
-      <c r="BP9" s="38"/>
-      <c r="BQ9" s="38"/>
-      <c r="BR9" s="38"/>
-      <c r="BS9" s="38"/>
-      <c r="BT9" s="38"/>
-      <c r="BU9" s="38"/>
-      <c r="BV9" s="38"/>
-      <c r="BW9" s="38"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38"/>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="38"/>
-      <c r="CI9" s="38"/>
-      <c r="CJ9" s="38"/>
-      <c r="CK9" s="38"/>
-      <c r="CL9" s="38"/>
-      <c r="CM9" s="38"/>
-      <c r="CN9" s="38"/>
-      <c r="CO9" s="38"/>
-      <c r="CP9" s="38"/>
-      <c r="CQ9" s="38"/>
-      <c r="CR9" s="38"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="38"/>
-      <c r="CU9" s="38"/>
-      <c r="CV9" s="38"/>
-      <c r="CW9" s="38"/>
-      <c r="CX9" s="38"/>
-      <c r="CY9" s="38"/>
-      <c r="CZ9" s="38"/>
-      <c r="DA9" s="38"/>
-      <c r="DB9" s="38"/>
-      <c r="DC9" s="38"/>
-      <c r="DD9" s="38"/>
-      <c r="DE9" s="38"/>
-      <c r="DF9" s="38"/>
-      <c r="DG9" s="38"/>
-      <c r="DH9" s="38"/>
-      <c r="DI9" s="38"/>
-      <c r="DJ9" s="38"/>
-      <c r="DK9" s="38"/>
-      <c r="DL9" s="38"/>
-      <c r="DM9" s="38"/>
-      <c r="DN9" s="38"/>
-      <c r="DO9" s="38"/>
-      <c r="DP9" s="38"/>
-      <c r="DQ9" s="38"/>
-      <c r="DR9" s="38"/>
-      <c r="DS9" s="38"/>
-      <c r="DT9" s="38"/>
-      <c r="DU9" s="38"/>
-      <c r="DV9" s="38"/>
-      <c r="DW9" s="38"/>
+    <row r="14" spans="1:126" s="50" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
     </row>
-    <row r="10" spans="1:127" s="65" customFormat="1" ht="124.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="44">
-        <v>3</v>
-      </c>
-      <c r="E10" s="61">
-        <v>750</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
+    <row r="15" spans="1:126" s="50" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
     </row>
-    <row r="11" spans="1:127" s="60" customFormat="1" ht="93.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-    </row>
-    <row r="12" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-    </row>
-    <row r="13" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-    </row>
-    <row r="14" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-    </row>
-    <row r="15" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-    </row>
-    <row r="16" spans="1:127" s="60" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
+    <row r="16" spans="1:126" s="50" customFormat="1" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
@@ -6718,34 +6864,47 @@
       <c r="C22" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N16" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A4:M16" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C15 C11">
-    <cfRule type="duplicateValues" dxfId="11" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C1048576 C2:C5 B1 C9">
-    <cfRule type="duplicateValues" dxfId="9" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6 C8">
-    <cfRule type="duplicateValues" dxfId="2" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="1" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12 C14">
-    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"Cross-platform"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Linux, macOS, Windows"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"CRM Lösung für NON-Profit Organisationen"</formula>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{B84C1E36-11AC-4061-9A7E-251503A94C44}"/>
@@ -6760,7 +6919,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{E3EC7C04-1D0A-4112-8FE3-C886FF74FF67}">
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{E3EC7C04-1D0A-4112-8FE3-C886FF74FF67}">
             <xm:f>NOT(ISERROR(SEARCH("-",J6)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -6775,11 +6934,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>T9:AH9 J6:T6 U6:AD1048576 J8:T9 K7:L7 O7:T7 J11:T16 K10:T10</xm:sqref>
+          <xm:sqref>S9:AG9 T6:AC1048576 N7:S7 J8:J9 J11:J16 L8:S10 K6:K15 J6:S6 L12:S16 L11 N11:S11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{01EEB067-DA54-4F8D-9BC3-C701369D85C4}">
-            <xm:f>NOT(ISERROR(SEARCH("-",U2)))</xm:f>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{01EEB067-DA54-4F8D-9BC3-C701369D85C4}">
+            <xm:f>NOT(ISERROR(SEARCH("-",T2)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -6793,7 +6952,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>U2:AD3</xm:sqref>
+          <xm:sqref>T2:AC3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7049,15 +7208,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6539C82E-ABB7-4E02-A471-7E913DCC58B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="91f9b605-f644-4f42-96d9-fc23afc4f13c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="daa98ab5-b0ae-4511-837f-5a99de3b2e1b"/>
-    <ds:schemaRef ds:uri="91f9b605-f644-4f42-96d9-fc23afc4f13c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
